--- a/data/BOC/FTD/FTDE/UATPCSB_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UATPCSB_A_historical.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UATPCSB" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,41 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>UATPBLCSB</t>
-  </si>
-  <si>
-    <t>Advanced Technology Products,  Balance,  Census Basis</t>
-  </si>
-  <si>
-    <t>UATPEXCSB</t>
-  </si>
-  <si>
-    <t>Advanced Technology Products,  Exports,  Census Basis</t>
-  </si>
-  <si>
-    <t>UATPIMCSB</t>
-  </si>
-  <si>
-    <t>Advanced Technology Products,  Imports,  Census Basis</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
         <v>1999</v>
@@ -471,19 +438,27 @@
       <c r="W1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>3</v>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>UATPBLCSB</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>19098</v>
@@ -551,19 +526,25 @@
       <c r="W2" t="n">
         <v>-191179</v>
       </c>
-      <c r="X2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>5</v>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>UATPBLCSB</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Advanced Technology Products,  Balance,  Census Basis</t>
+        </is>
       </c>
       <c r="Z2" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>UATPEXCSB</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>200277</v>
@@ -631,19 +612,25 @@
       <c r="W3" t="n">
         <v>300783</v>
       </c>
-      <c r="X3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>7</v>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>UATPEXCSB</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Advanced Technology Products,  Exports,  Census Basis</t>
+        </is>
       </c>
       <c r="Z3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>UATPIMCSB</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>181179</v>
@@ -711,11 +698,15 @@
       <c r="W4" t="n">
         <v>491962</v>
       </c>
-      <c r="X4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>9</v>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>UATPIMCSB</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Advanced Technology Products,  Imports,  Census Basis</t>
+        </is>
       </c>
       <c r="Z4" t="n">
         <v>10</v>

--- a/data/BOC/FTD/FTDE/UATPCSB_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UATPCSB_A_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +440,25 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>2021.0</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2021.0</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -526,17 +536,23 @@
       <c r="W2" t="n">
         <v>-191179</v>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" t="n">
+        <v>-197162</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-197162</v>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>UATPBLCSB</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Advanced Technology Products,  Balance,  Census Basis</t>
         </is>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -612,17 +628,23 @@
       <c r="W3" t="n">
         <v>300783</v>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" t="n">
+        <v>356620</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>356620</v>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>UATPEXCSB</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>Advanced Technology Products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -698,17 +720,23 @@
       <c r="W4" t="n">
         <v>491962</v>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" t="n">
+        <v>553781</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>553781</v>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>UATPIMCSB</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>Advanced Technology Products,  Imports,  Census Basis</t>
         </is>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>10</v>
       </c>
     </row>

--- a/data/BOC/FTD/FTDE/UATPCSB_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UATPCSB_A_historical.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2021.0</t>
+          <t>2021.0.1</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">

--- a/data/BOC/FTD/FTDE/UATPCSB_A_historical.xlsx
+++ b/data/BOC/FTD/FTDE/UATPCSB_A_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,27 +438,20 @@
       <c r="W1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2021.0</t>
-        </is>
+      <c r="X1" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>2021.0.1</t>
+          <t>Index</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Index</t>
+          <t>Label</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>order</t>
         </is>
@@ -539,20 +532,17 @@
       <c r="X2" t="n">
         <v>-197162</v>
       </c>
-      <c r="Y2" t="n">
-        <v>-197162</v>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>UATPBLCSB</t>
+        </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>UATPBLCSB</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
           <t>Advanced Technology Products,  Balance,  Census Basis</t>
         </is>
       </c>
-      <c r="AB2" t="n">
+      <c r="AA2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -631,20 +621,17 @@
       <c r="X3" t="n">
         <v>356620</v>
       </c>
-      <c r="Y3" t="n">
-        <v>356620</v>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>UATPEXCSB</t>
+        </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>UATPEXCSB</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
           <t>Advanced Technology Products,  Exports,  Census Basis</t>
         </is>
       </c>
-      <c r="AB3" t="n">
+      <c r="AA3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -723,20 +710,17 @@
       <c r="X4" t="n">
         <v>553781</v>
       </c>
-      <c r="Y4" t="n">
-        <v>553781</v>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>UATPIMCSB</t>
+        </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>UATPIMCSB</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
           <t>Advanced Technology Products,  Imports,  Census Basis</t>
         </is>
       </c>
-      <c r="AB4" t="n">
+      <c r="AA4" t="n">
         <v>10</v>
       </c>
     </row>
